--- a/Excel/exp4.xlsx
+++ b/Excel/exp4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
   <si>
     <t xml:space="preserve">Highlight the Speed values of each Pokemon with Color scale conditional formatting. </t>
   </si>
@@ -427,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -443,12 +443,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -477,6 +471,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,24 +1095,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="107194624"/>
-        <c:axId val="107380736"/>
+        <c:axId val="104708736"/>
+        <c:axId val="105550208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107194624"/>
+        <c:axId val="104708736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107380736"/>
+        <c:crossAx val="105550208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107380736"/>
+        <c:axId val="105550208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +1120,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107194624"/>
+        <c:crossAx val="104708736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1131,7 +1132,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1585,11 +1586,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -1716,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1727,70 +1728,138 @@
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="2:9">
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="C2" s="28"/>
+      <c r="I2">
+        <f>C9</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3" s="29">
+        <f t="dataTable" ref="I3:I11" dt2D="0" dtr="0" r1="C4"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="12">
-        <v>483.33333333333297</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <v>250</v>
+      </c>
+      <c r="I4" s="29">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="13">
         <f>C3*C4</f>
-        <v>15466.666666666655</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>6400</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5" s="29">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="13">
         <v>800</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="H6">
+        <v>400</v>
+      </c>
+      <c r="I6" s="29">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="12">
         <f>20*C4</f>
-        <v>9666.6666666666588</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>4000</v>
+      </c>
+      <c r="H7">
+        <v>450</v>
+      </c>
+      <c r="I7" s="29">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="14">
         <f>C6+C7</f>
-        <v>10466.666666666659</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+        <v>4800</v>
+      </c>
+      <c r="H8">
+        <v>500</v>
+      </c>
+      <c r="I8" s="29">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="14">
         <f>C5-C8</f>
-        <v>4999.9999999999964</v>
+        <v>1600</v>
+      </c>
+      <c r="H9">
+        <v>550</v>
+      </c>
+      <c r="I9" s="29">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="H10">
+        <v>600</v>
+      </c>
+      <c r="I10" s="29">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="H11">
+        <v>650</v>
+      </c>
+      <c r="I11">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
@@ -1838,11 +1907,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -3051,7 +3120,7 @@
   </sheetPr>
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
@@ -3061,143 +3130,143 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" collapsed="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="26" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>200</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="24">
         <v>400</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>600</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <v>800</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>1000</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <v>1200</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="22.5" hidden="1" outlineLevel="1">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="28" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="2:10" outlineLevel="1">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>483.33333333333297</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>200</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="25">
         <v>400</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="25">
         <v>600</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <v>800</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="25">
         <v>1000</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="25">
         <v>1200</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>5000</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>1600</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>4000</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>6400</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <v>8800</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="16">
         <v>11200</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="16">
         <v>13600</v>
       </c>
     </row>
